--- a/Version4/SystemTestPlan_V4.xlsx
+++ b/Version4/SystemTestPlan_V4.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTER\GURU_BANK\GURU99_BANK\Version4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="2" r:id="rId1"/>
     <sheet name="Manager" sheetId="1" r:id="rId2"/>
     <sheet name="Customer" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -988,7 +983,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1260,7 +1255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1295,7 +1290,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1472,7 +1467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1486,19 +1481,19 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="2"/>
-    <col min="5" max="5" width="24.54296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="45.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="2"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="24.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="12" spans="4:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="7" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="4:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="8">
         <v>1</v>
       </c>
@@ -1526,7 +1521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="4:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="8" t="s">
         <v>6</v>
       </c>
@@ -1540,7 +1535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="4:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="8">
         <v>2</v>
       </c>
@@ -1554,7 +1549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="4:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="8" t="s">
         <v>9</v>
       </c>
@@ -1581,20 +1576,20 @@
       <selection activeCell="C5" sqref="A1:I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.453125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="29.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.54296875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="29.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
@@ -1623,7 +1618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
@@ -1650,7 +1645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
@@ -1675,7 +1670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
@@ -1700,7 +1695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="252" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>35</v>
       </c>
@@ -1727,7 +1722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="263.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>41</v>
       </c>
@@ -1752,7 +1747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>46</v>
       </c>
@@ -1781,7 +1776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>53</v>
       </c>
@@ -1808,7 +1803,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="62" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>59</v>
       </c>
@@ -1835,7 +1830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>64</v>
       </c>
@@ -1862,7 +1857,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="62" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>68</v>
       </c>
@@ -1889,7 +1884,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>73</v>
       </c>
@@ -1918,7 +1913,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>81</v>
       </c>
@@ -1943,7 +1938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="62" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>85</v>
       </c>
@@ -1970,7 +1965,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>88</v>
       </c>
@@ -1995,7 +1990,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>92</v>
       </c>
@@ -2020,7 +2015,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>95</v>
       </c>
@@ -2047,7 +2042,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>101</v>
       </c>
@@ -2072,7 +2067,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="124" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="126" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>106</v>
       </c>
@@ -2099,7 +2094,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>111</v>
       </c>
@@ -2126,7 +2121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>116</v>
       </c>
@@ -2153,7 +2148,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>119</v>
       </c>
@@ -2180,7 +2175,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>123</v>
       </c>
@@ -2207,7 +2202,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>126</v>
       </c>
@@ -2234,7 +2229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>132</v>
       </c>
@@ -2263,7 +2258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>137</v>
       </c>
@@ -2290,7 +2285,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>141</v>
       </c>
@@ -2319,7 +2314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>146</v>
       </c>
@@ -2346,7 +2341,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>151</v>
       </c>
@@ -2373,7 +2368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>155</v>
       </c>
@@ -2400,7 +2395,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="108.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>159</v>
       </c>
@@ -2429,7 +2424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>165</v>
       </c>
@@ -2454,7 +2449,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="62" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>169</v>
       </c>
@@ -2479,7 +2474,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>172</v>
       </c>
@@ -2506,7 +2501,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>177</v>
       </c>
@@ -2531,7 +2526,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="170.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>183</v>
       </c>
@@ -2576,23 +2571,23 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.453125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="29.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="29.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
@@ -2621,7 +2616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>188</v>
       </c>
@@ -2646,7 +2641,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>190</v>
       </c>
@@ -2669,7 +2664,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>191</v>
       </c>
@@ -2692,7 +2687,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>192</v>
       </c>
@@ -2721,7 +2716,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>198</v>
       </c>
@@ -2750,7 +2745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>204</v>
       </c>
@@ -2775,7 +2770,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>211</v>
       </c>
@@ -2796,7 +2791,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>216</v>
       </c>
@@ -2823,7 +2818,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>221</v>
       </c>
@@ -2846,7 +2841,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>227</v>
       </c>
@@ -2869,7 +2864,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>233</v>
       </c>
@@ -2892,7 +2887,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>239</v>
       </c>
@@ -2921,7 +2916,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>243</v>
       </c>
@@ -2944,7 +2939,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>247</v>
       </c>
@@ -2973,7 +2968,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>252</v>
       </c>
@@ -2996,7 +2991,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>256</v>
       </c>
@@ -3023,7 +3018,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3034,7 +3029,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3045,7 +3040,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -3056,7 +3051,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -3067,7 +3062,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3078,7 +3073,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3089,7 +3084,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3100,7 +3095,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3111,7 +3106,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3122,7 +3117,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3133,7 +3128,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3144,7 +3139,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3155,7 +3150,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3166,21 +3161,21 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
